--- a/VB/TestRTDClient/Portfolio.xlsx
+++ b/VB/TestRTDClient/Portfolio.xlsx
@@ -1,30 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestProjects\RTDFunction1\RTDFunction\TestRTDClient\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="8145"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Portfolio</t>
-  </si>
-  <si>
-    <t># of shares</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>Market Value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MSFT</t>
   </si>
@@ -35,20 +37,35 @@
     <t>YHOO</t>
   </si>
   <si>
-    <t>77</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>NUMBER OF SHARES</t>
+  </si>
+  <si>
+    <t>% CHG</t>
+  </si>
+  <si>
+    <t>SYMBOL</t>
+  </si>
+  <si>
+    <t>MARKET VALUE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,65 +74,234 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <scheme val="major"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF282828"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="1" builtinId="15"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Stock" xfId="2"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD9D9D9"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.24994659260841701"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2">
+    <tableStyle name="Table Style 1" pivot="0" count="0"/>
+    <tableStyle name="TableStyleMedium2 2" pivot="0" count="3">
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF282828"/>
+      <color rgb="FFD9D9D9"/>
+      <color rgb="FF280000"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -123,29 +309,89 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="my.sample.rtdserver">
-      <tp t="n">
-        <v>35.214849067951945</v>
+      <tp>
+        <v>54.879147605914227</v>
+        <stp/>
+        <stp>NOK</stp>
+        <stp>PRICE</stp>
+        <tr r="C6" s="1"/>
+      </tp>
+      <tp>
+        <v>54</v>
+        <stp/>
+        <stp>YHOO</stp>
+        <stp>SHARES</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>-0.12000217521330452</v>
         <stp/>
         <stp>MSFT</stp>
+        <stp>CHANGE</stp>
+        <tr r="D3" s="1"/>
+      </tp>
+      <tp>
+        <v>100</v>
+        <stp/>
+        <stp>NOK</stp>
+        <stp>SHARES</stp>
+        <tr r="E6" s="1"/>
+      </tp>
+      <tp>
+        <v>64.874976999068153</v>
+        <stp/>
+        <stp>FB</stp>
+        <stp>PRICE</stp>
+        <tr r="C4" s="1"/>
+      </tp>
+      <tp>
+        <v>9.7582952118284536E-2</v>
+        <stp/>
+        <stp>NOK</stp>
+        <stp>CHANGE</stp>
+        <tr r="D6" s="1"/>
+      </tp>
+      <tp>
+        <v>176</v>
+        <stp/>
+        <stp>MSFT</stp>
+        <stp>SHARES</stp>
+        <tr r="E3" s="1"/>
+      </tp>
+      <tp>
+        <v>-3.7342609867975246E-2</v>
+        <stp/>
+        <stp>YHOO</stp>
+        <stp>CHANGE</stp>
+        <tr r="D5" s="1"/>
+      </tp>
+      <tp>
+        <v>8.1249616651135878E-2</v>
+        <stp/>
+        <stp>FB</stp>
+        <stp>CHANGE</stp>
+        <tr r="D4" s="1"/>
+      </tp>
+      <tp>
+        <v>210</v>
+        <stp/>
+        <stp>FB</stp>
+        <stp>SHARES</stp>
+        <tr r="E4" s="1"/>
+      </tp>
+      <tp>
+        <v>35.199912991467819</v>
+        <stp/>
+        <stp>MSFT</stp>
+        <stp>PRICE</stp>
         <tr r="C3" s="1"/>
       </tp>
-      <tp t="n">
-        <v>33.651496884716437</v>
+      <tp>
+        <v>34.655666044752891</v>
         <stp/>
         <stp>YHOO</stp>
+        <stp>PRICE</stp>
         <tr r="C5" s="1"/>
-      </tp>
-      <tp t="n">
-        <v>73.280199662447075</v>
-        <stp/>
-        <stp>77</stp>
-        <tr r="C6" s="1"/>
-      </tp>
-      <tp t="n">
-        <v>60.409095024414867</v>
-        <stp/>
-        <stp>FB</stp>
-        <tr r="C4" s="1"/>
       </tp>
     </main>
   </volType>
@@ -153,7 +399,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -167,31 +413,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>PORTFOLIO VALUE</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -199,17 +420,470 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:srgbClr val="D9D9D9"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Portfolio!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PRICE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FC47-459C-A0B9-9D28B5A8492B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FC47-459C-A0B9-9D28B5A8492B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FC47-459C-A0B9-9D28B5A8492B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FC47-459C-A0B9-9D28B5A8492B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Portfolio!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>YHOO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>NOK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Portfolio!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>35.199912991467819</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.874976999068153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.655666044752891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.879147605914227</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2123-413A-9EE6-2A4CC0DE9CCA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="439884776"/>
+        <c:axId val="439885560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="439884776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="D9D9D9"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439885560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439885560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="D9D9D9"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439884776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="282828"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -229,252 +903,209 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Portfolio!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MARKET VALUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FD93-44CB-90A6-F1F9A8DA96EF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FD93-44CB-90A6-F1F9A8DA96EF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FD93-44CB-90A6-F1F9A8DA96EF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+                <a:tileRect/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst>
-                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="20000"/>
-                  </a:prstClr>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FD93-44CB-90A6-F1F9A8DA96EF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-              </c:spPr>
-            </c:leaderLines>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Portfolio!$B$3:$B$6</c:f>
@@ -490,41 +1121,46 @@
                   <c:v>YHOO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>NOK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Portfolio!$C$3:$C$6</c:f>
+              <c:f>Portfolio!$F$3:$F$6</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>6197.81343595954</c:v>
+                <c:pt idx="0">
+                  <c:v>6195.1846864983363</c:v>
                 </c:pt>
-                <c:pt idx="1" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>12685.9099551271</c:v>
+                <c:pt idx="1">
+                  <c:v>13623.745169804311</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>1817.18083177469</c:v>
+                <c:pt idx="2">
+                  <c:v>1871.4059664166562</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)">
-                  <c:v>7328.01996624471</c:v>
+                <c:pt idx="3">
+                  <c:v>5487.9147605914222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9592-4545-B9C0-197481DF59FA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
@@ -533,25 +1169,58 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -565,30 +1234,572 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins l="0.7" r="0.7" t="0.75" b="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>90170</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3265B58-C187-47BC-B67E-E9A6DDB92476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -603,21 +1814,63 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E238DF2-6E70-4B0B-AC57-BC54D74C95BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:C7" totalsRowCount="1">
-  <autoFilter ref="A2:C6"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="# of shares"/>
-    <tableColumn id="2" name="Investment" totalsRowLabel="Total"/>
-    <tableColumn id="3" name="Market Value" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="0" dataCellStyle="Currency">
-      <calculatedColumnFormula>RTD("my.sample.rtdserver",,B3)*A3</calculatedColumnFormula>
-      <totalsRowFormula>SUM(C3:C6)</totalsRowFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F7" totalsRowCount="1" headerRowDxfId="11" totalsRowDxfId="10">
+  <tableColumns count="5">
+    <tableColumn id="1" name="SYMBOL" totalsRowLabel="Total" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="PRICE" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>RTD("my.sample.rtdserver",,B3,"PRICE")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="% CHG" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>RTD("my.sample.rtdserver",,B3, "CHANGE")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="NUMBER OF SHARES" dataDxfId="3" totalsRowDxfId="2">
+      <calculatedColumnFormula>RTD("my.sample.rtdserver",,B3,"SHARES")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="MARKET VALUE" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>C3*E3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight10" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleMedium2 2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -626,10 +1879,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -875,100 +2128,157 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.29" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C3" s="3">
+        <f>RTD("my.sample.rtdserver",,B3,"PRICE")</f>
+        <v>35.199912991467819</v>
+      </c>
+      <c r="D3" s="3">
+        <f>RTD("my.sample.rtdserver",,B3, "CHANGE")</f>
+        <v>-0.12000217521330452</v>
+      </c>
+      <c r="E3" s="2">
+        <f>RTD("my.sample.rtdserver",,B3,"SHARES")</f>
+        <v>176</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="0">C3*E3</f>
+        <v>6195.1846864983363</v>
+      </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" s="3">
+        <f>RTD("my.sample.rtdserver",,B4,"PRICE")</f>
+        <v>64.874976999068153</v>
+      </c>
+      <c r="D4" s="3">
+        <f>RTD("my.sample.rtdserver",,B4, "CHANGE")</f>
+        <v>8.1249616651135878E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>RTD("my.sample.rtdserver",,B4,"SHARES")</f>
+        <v>210</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>13623.745169804311</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3">
+        <f>RTD("my.sample.rtdserver",,B5,"PRICE")</f>
+        <v>34.655666044752891</v>
+      </c>
+      <c r="D5" s="3">
+        <f>RTD("my.sample.rtdserver",,B5, "CHANGE")</f>
+        <v>-3.7342609867975246E-2</v>
+      </c>
+      <c r="E5" s="2">
+        <f>RTD("my.sample.rtdserver",,B5,"SHARES")</f>
+        <v>54</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>1871.4059664166562</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <f>RTD("my.sample.rtdserver",,B6,"PRICE")</f>
+        <v>54.879147605914227</v>
+      </c>
+      <c r="D6" s="3">
+        <f>RTD("my.sample.rtdserver",,B6, "CHANGE")</f>
+        <v>9.7582952118284536E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <f>RTD("my.sample.rtdserver",,B6,"SHARES")</f>
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>5487.9147605914222</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>176</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2">
-        <f>RTD("my.sample.rtdserver",,B3)*A3</f>
-        <v>6197.8134359595424</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>210</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <f>RTD("my.sample.rtdserver",,B4)*A4</f>
-        <v>12685.909955127123</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <f>RTD("my.sample.rtdserver",,B5)*A5</f>
-        <v>1817.1808317746877</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2">
-        <f>RTD("my.sample.rtdserver",,B6)*A6</f>
-        <v>7328.0199662447076</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C3:C6)</f>
-        <v>28028.924189106059</v>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3">
+        <f>SUBTOTAL(109,Table1[MARKET VALUE])</f>
+        <v>27178.250583310724</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="D3:D6">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>